--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd274</t>
   </si>
   <si>
     <t>Cd80</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.51175913472729</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H2">
-        <v>7.51175913472729</v>
+        <v>24.141949</v>
       </c>
       <c r="I2">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J2">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.04815090413046</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N2">
-        <v>1.04815090413046</v>
+        <v>0.243194</v>
       </c>
       <c r="O2">
-        <v>0.01211820855398139</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P2">
-        <v>0.01211820855398139</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q2">
-        <v>7.873457128674651</v>
+        <v>0.6523530161228889</v>
       </c>
       <c r="R2">
-        <v>7.873457128674651</v>
+        <v>5.871177145106</v>
       </c>
       <c r="S2">
-        <v>0.001274544113187221</v>
+        <v>8.586148645948314E-05</v>
       </c>
       <c r="T2">
-        <v>0.001274544113187221</v>
+        <v>8.586148645948315E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.51175913472729</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H3">
-        <v>7.51175913472729</v>
+        <v>24.141949</v>
       </c>
       <c r="I3">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J3">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0456901484545</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N3">
-        <v>12.0456901484545</v>
+        <v>3.359105</v>
       </c>
       <c r="O3">
-        <v>0.1392663831327879</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P3">
-        <v>0.1392663831327879</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q3">
-        <v>90.48432300674763</v>
+        <v>9.010593510627221</v>
       </c>
       <c r="R3">
-        <v>90.48432300674763</v>
+        <v>81.095341595645</v>
       </c>
       <c r="S3">
-        <v>0.01464747433550759</v>
+        <v>0.001185957500898386</v>
       </c>
       <c r="T3">
-        <v>0.01464747433550759</v>
+        <v>0.001185957500898386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.51175913472729</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H4">
-        <v>7.51175913472729</v>
+        <v>24.141949</v>
       </c>
       <c r="I4">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J4">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3208400928581</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N4">
-        <v>16.3208400928581</v>
+        <v>47.628101</v>
       </c>
       <c r="O4">
-        <v>0.188693577653794</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P4">
-        <v>0.188693577653794</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q4">
-        <v>122.5982196539502</v>
+        <v>127.7594650343165</v>
       </c>
       <c r="R4">
-        <v>122.5982196539502</v>
+        <v>1149.835185308849</v>
       </c>
       <c r="S4">
-        <v>0.01984602654126333</v>
+        <v>0.016815462343242</v>
       </c>
       <c r="T4">
-        <v>0.01984602654126333</v>
+        <v>0.016815462343242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.51175913472729</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H5">
-        <v>7.51175913472729</v>
+        <v>24.141949</v>
       </c>
       <c r="I5">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J5">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.0433493898552</v>
+        <v>17.297808</v>
       </c>
       <c r="N5">
-        <v>56.0433493898552</v>
+        <v>51.893424</v>
       </c>
       <c r="O5">
-        <v>0.6479458189594614</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P5">
-        <v>0.6479458189594614</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q5">
-        <v>420.9841417199579</v>
+        <v>139.200932849264</v>
       </c>
       <c r="R5">
-        <v>420.9841417199579</v>
+        <v>1252.808395643376</v>
       </c>
       <c r="S5">
-        <v>0.06814831792507231</v>
+        <v>0.01832136698319949</v>
       </c>
       <c r="T5">
-        <v>0.06814831792507231</v>
+        <v>0.01832136698319949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.51175913472729</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H6">
-        <v>7.51175913472729</v>
+        <v>24.141949</v>
       </c>
       <c r="I6">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J6">
-        <v>0.1051759513388202</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.03585174617926</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N6">
-        <v>1.03585174617926</v>
+        <v>194.834139</v>
       </c>
       <c r="O6">
-        <v>0.01197601169997529</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P6">
-        <v>0.01197601169997529</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q6">
-        <v>7.781068816585271</v>
+        <v>522.6306496885455</v>
       </c>
       <c r="R6">
-        <v>7.781068816585271</v>
+        <v>4703.675847196911</v>
       </c>
       <c r="S6">
-        <v>0.001259588423789742</v>
+        <v>0.06878767069744136</v>
       </c>
       <c r="T6">
-        <v>0.001259588423789742</v>
+        <v>0.06878767069744138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.19387666993569</v>
+        <v>8.047316333333333</v>
       </c>
       <c r="H7">
-        <v>1.19387666993569</v>
+        <v>24.141949</v>
       </c>
       <c r="I7">
-        <v>0.01671607306485706</v>
+        <v>0.1063829007179503</v>
       </c>
       <c r="J7">
-        <v>0.01671607306485706</v>
+        <v>0.1063829007179504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.04815090413046</v>
+        <v>1.120291</v>
       </c>
       <c r="N7">
-        <v>1.04815090413046</v>
+        <v>3.360873</v>
       </c>
       <c r="O7">
-        <v>0.01211820855398139</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P7">
-        <v>0.01211820855398139</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q7">
-        <v>1.251362911013356</v>
+        <v>9.015336062386332</v>
       </c>
       <c r="R7">
-        <v>1.251362911013356</v>
+        <v>81.138024561477</v>
       </c>
       <c r="S7">
-        <v>0.0002025688596035286</v>
+        <v>0.001186581706709633</v>
       </c>
       <c r="T7">
-        <v>0.0002025688596035286</v>
+        <v>0.001186581706709633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.19387666993569</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H8">
-        <v>1.19387666993569</v>
+        <v>3.583823</v>
       </c>
       <c r="I8">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J8">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>12.0456901484545</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N8">
-        <v>12.0456901484545</v>
+        <v>0.243194</v>
       </c>
       <c r="O8">
-        <v>0.1392663831327879</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P8">
-        <v>0.1392663831327879</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q8">
-        <v>14.38106844151401</v>
+        <v>0.09684047229577779</v>
       </c>
       <c r="R8">
-        <v>14.38106844151401</v>
+        <v>0.8715642506620002</v>
       </c>
       <c r="S8">
-        <v>0.002327987035926059</v>
+        <v>1.274596222482635E-05</v>
       </c>
       <c r="T8">
-        <v>0.002327987035926059</v>
+        <v>1.274596222482635E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.19387666993569</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H9">
-        <v>1.19387666993569</v>
+        <v>3.583823</v>
       </c>
       <c r="I9">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J9">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.3208400928581</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N9">
-        <v>16.3208400928581</v>
+        <v>3.359105</v>
       </c>
       <c r="O9">
-        <v>0.188693577653794</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P9">
-        <v>0.188693577653794</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q9">
-        <v>19.48507022061433</v>
+        <v>1.337604195379444</v>
       </c>
       <c r="R9">
-        <v>19.48507022061433</v>
+        <v>12.038437758415</v>
       </c>
       <c r="S9">
-        <v>0.0031542156309301</v>
+        <v>0.0001760529677509532</v>
       </c>
       <c r="T9">
-        <v>0.0031542156309301</v>
+        <v>0.0001760529677509532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.19387666993569</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H10">
-        <v>1.19387666993569</v>
+        <v>3.583823</v>
       </c>
       <c r="I10">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J10">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.0433493898552</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N10">
-        <v>56.0433493898552</v>
+        <v>47.628101</v>
       </c>
       <c r="O10">
-        <v>0.6479458189594614</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P10">
-        <v>0.6479458189594614</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q10">
-        <v>66.90884734160271</v>
+        <v>18.96563153445811</v>
       </c>
       <c r="R10">
-        <v>66.90884734160271</v>
+        <v>170.690683810123</v>
       </c>
       <c r="S10">
-        <v>0.010831109651795</v>
+        <v>0.002496221025955468</v>
       </c>
       <c r="T10">
-        <v>0.010831109651795</v>
+        <v>0.002496221025955468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.19387666993569</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H11">
-        <v>1.19387666993569</v>
+        <v>3.583823</v>
       </c>
       <c r="I11">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J11">
-        <v>0.01671607306485706</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03585174617926</v>
+        <v>17.297808</v>
       </c>
       <c r="N11">
-        <v>1.03585174617926</v>
+        <v>51.893424</v>
       </c>
       <c r="O11">
-        <v>0.01197601169997529</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P11">
-        <v>0.01197601169997529</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q11">
-        <v>1.236679233275565</v>
+        <v>20.664094053328</v>
       </c>
       <c r="R11">
-        <v>1.236679233275565</v>
+        <v>185.976846479952</v>
       </c>
       <c r="S11">
-        <v>0.0002001918866023699</v>
+        <v>0.002719769492754332</v>
       </c>
       <c r="T11">
-        <v>0.0002001918866023699</v>
+        <v>0.002719769492754332</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.3322831604783</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H12">
-        <v>12.3322831604783</v>
+        <v>3.583823</v>
       </c>
       <c r="I12">
-        <v>0.1726705543028712</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J12">
-        <v>0.1726705543028712</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.04815090413046</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N12">
-        <v>1.04815090413046</v>
+        <v>194.834139</v>
       </c>
       <c r="O12">
-        <v>0.01211820855398139</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P12">
-        <v>0.01211820855398139</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q12">
-        <v>12.92609374464818</v>
+        <v>77.58345205926634</v>
       </c>
       <c r="R12">
-        <v>12.92609374464818</v>
+        <v>698.251068533397</v>
       </c>
       <c r="S12">
-        <v>0.002092457788173761</v>
+        <v>0.01021138916174152</v>
       </c>
       <c r="T12">
-        <v>0.002092457788173761</v>
+        <v>0.01021138916174152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.3322831604783</v>
+        <v>1.194607666666667</v>
       </c>
       <c r="H13">
-        <v>12.3322831604783</v>
+        <v>3.583823</v>
       </c>
       <c r="I13">
-        <v>0.1726705543028712</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="J13">
-        <v>0.1726705543028712</v>
+        <v>0.01579232424025529</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0456901484545</v>
+        <v>1.120291</v>
       </c>
       <c r="N13">
-        <v>12.0456901484545</v>
+        <v>3.360873</v>
       </c>
       <c r="O13">
-        <v>0.1392663831327879</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P13">
-        <v>0.1392663831327879</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q13">
-        <v>148.5508617741248</v>
+        <v>1.338308217497667</v>
       </c>
       <c r="R13">
-        <v>148.5508617741248</v>
+        <v>12.044773957479</v>
       </c>
       <c r="S13">
-        <v>0.02404720357129451</v>
+        <v>0.0001761456298281981</v>
       </c>
       <c r="T13">
-        <v>0.02404720357129451</v>
+        <v>0.0001761456298281981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.3322831604783</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H14">
-        <v>12.3322831604783</v>
+        <v>45.357556</v>
       </c>
       <c r="I14">
-        <v>0.1726705543028712</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J14">
-        <v>0.1726705543028712</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>16.3208400928581</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N14">
-        <v>16.3208400928581</v>
+        <v>0.243194</v>
       </c>
       <c r="O14">
-        <v>0.188693577653794</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P14">
-        <v>0.188693577653794</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q14">
-        <v>201.273221442013</v>
+        <v>1.225631719318222</v>
       </c>
       <c r="R14">
-        <v>201.273221442013</v>
+        <v>11.030685473864</v>
       </c>
       <c r="S14">
-        <v>0.03258182464687248</v>
+        <v>0.0001613153594322169</v>
       </c>
       <c r="T14">
-        <v>0.03258182464687248</v>
+        <v>0.0001613153594322169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.3322831604783</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H15">
-        <v>12.3322831604783</v>
+        <v>45.357556</v>
       </c>
       <c r="I15">
-        <v>0.1726705543028712</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J15">
-        <v>0.1726705543028712</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.0433493898552</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N15">
-        <v>56.0433493898552</v>
+        <v>3.359105</v>
       </c>
       <c r="O15">
-        <v>0.6479458189594614</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P15">
-        <v>0.6479458189594614</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q15">
-        <v>691.1424539373131</v>
+        <v>16.92897701637555</v>
       </c>
       <c r="R15">
-        <v>691.1424539373131</v>
+        <v>152.36079314738</v>
       </c>
       <c r="S15">
-        <v>0.111881163717958</v>
+        <v>0.002228160359406716</v>
       </c>
       <c r="T15">
-        <v>0.111881163717958</v>
+        <v>0.002228160359406716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.3322831604783</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H16">
-        <v>12.3322831604783</v>
+        <v>45.357556</v>
       </c>
       <c r="I16">
-        <v>0.1726705543028712</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J16">
-        <v>0.1726705543028712</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.03585174617926</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N16">
-        <v>1.03585174617926</v>
+        <v>47.628101</v>
       </c>
       <c r="O16">
-        <v>0.01197601169997529</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P16">
-        <v>0.01197601169997529</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q16">
-        <v>12.77441704615853</v>
+        <v>240.0326953645729</v>
       </c>
       <c r="R16">
-        <v>12.77441704615853</v>
+        <v>2160.294258281156</v>
       </c>
       <c r="S16">
-        <v>0.002067904578572404</v>
+        <v>0.03159265537755425</v>
       </c>
       <c r="T16">
-        <v>0.002067904578572404</v>
+        <v>0.03159265537755425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.4426069220666</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H17">
-        <v>16.4426069220666</v>
+        <v>45.357556</v>
       </c>
       <c r="I17">
-        <v>0.230221282991312</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J17">
-        <v>0.230221282991312</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.04815090413046</v>
+        <v>17.297808</v>
       </c>
       <c r="N17">
-        <v>1.04815090413046</v>
+        <v>51.893424</v>
       </c>
       <c r="O17">
-        <v>0.01211820855398139</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P17">
-        <v>0.01211820855398139</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q17">
-        <v>17.23433331162586</v>
+        <v>261.528765012416</v>
       </c>
       <c r="R17">
-        <v>17.23433331162586</v>
+        <v>2353.758885111744</v>
       </c>
       <c r="S17">
-        <v>0.002789869520853886</v>
+        <v>0.03442192794529647</v>
       </c>
       <c r="T17">
-        <v>0.002789869520853886</v>
+        <v>0.03442192794529646</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.4426069220666</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H18">
-        <v>16.4426069220666</v>
+        <v>45.357556</v>
       </c>
       <c r="I18">
-        <v>0.230221282991312</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J18">
-        <v>0.230221282991312</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.0456901484545</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N18">
-        <v>12.0456901484545</v>
+        <v>194.834139</v>
       </c>
       <c r="O18">
-        <v>0.1392663831327879</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P18">
-        <v>0.1392663831327879</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q18">
-        <v>198.0625482160474</v>
+        <v>981.9111522671426</v>
       </c>
       <c r="R18">
-        <v>198.0625482160474</v>
+        <v>8837.200370404284</v>
       </c>
       <c r="S18">
-        <v>0.03206208540239004</v>
+        <v>0.1292373132661641</v>
       </c>
       <c r="T18">
-        <v>0.03206208540239004</v>
+        <v>0.1292373132661641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.4426069220666</v>
+        <v>15.11918533333333</v>
       </c>
       <c r="H19">
-        <v>16.4426069220666</v>
+        <v>45.357556</v>
       </c>
       <c r="I19">
-        <v>0.230221282991312</v>
+        <v>0.199870705416405</v>
       </c>
       <c r="J19">
-        <v>0.230221282991312</v>
+        <v>0.1998707054164051</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.3208400928581</v>
+        <v>1.120291</v>
       </c>
       <c r="N19">
-        <v>16.3208400928581</v>
+        <v>3.360873</v>
       </c>
       <c r="O19">
-        <v>0.188693577653794</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P19">
-        <v>0.188693577653794</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q19">
-        <v>268.3571582847707</v>
+        <v>16.93788725626533</v>
       </c>
       <c r="R19">
-        <v>268.3571582847707</v>
+        <v>152.440985306388</v>
       </c>
       <c r="S19">
-        <v>0.04344127753967723</v>
+        <v>0.002229333108551333</v>
       </c>
       <c r="T19">
-        <v>0.04344127753967723</v>
+        <v>0.002229333108551333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.4426069220666</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H20">
-        <v>16.4426069220666</v>
+        <v>49.421053</v>
       </c>
       <c r="I20">
-        <v>0.230221282991312</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J20">
-        <v>0.230221282991312</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>56.0433493898552</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N20">
-        <v>56.0433493898552</v>
+        <v>0.243194</v>
       </c>
       <c r="O20">
-        <v>0.6479458189594614</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P20">
-        <v>0.6479458189594614</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q20">
-        <v>921.49876461343</v>
+        <v>1.335433729253556</v>
       </c>
       <c r="R20">
-        <v>921.49876461343</v>
+        <v>12.018903563282</v>
       </c>
       <c r="S20">
-        <v>0.1491709177497036</v>
+        <v>0.000175767295050325</v>
       </c>
       <c r="T20">
-        <v>0.1491709177497036</v>
+        <v>0.000175767295050325</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.4426069220666</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H21">
-        <v>16.4426069220666</v>
+        <v>49.421053</v>
       </c>
       <c r="I21">
-        <v>0.230221282991312</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J21">
-        <v>0.230221282991312</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.03585174617926</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N21">
-        <v>1.03585174617926</v>
+        <v>3.359105</v>
       </c>
       <c r="O21">
-        <v>0.01197601169997529</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P21">
-        <v>0.01197601169997529</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q21">
-        <v>17.03210309196188</v>
+        <v>18.44561180417389</v>
       </c>
       <c r="R21">
-        <v>17.03210309196188</v>
+        <v>166.010506237565</v>
       </c>
       <c r="S21">
-        <v>0.002757132778687275</v>
+        <v>0.00242777699959712</v>
       </c>
       <c r="T21">
-        <v>0.002757132778687275</v>
+        <v>0.00242777699959712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.9403553989376</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H22">
-        <v>33.9403553989376</v>
+        <v>49.421053</v>
       </c>
       <c r="I22">
-        <v>0.4752161383021395</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J22">
-        <v>0.4752161383021395</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.04815090413046</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N22">
-        <v>1.04815090413046</v>
+        <v>47.628101</v>
       </c>
       <c r="O22">
-        <v>0.01211820855398139</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P22">
-        <v>0.01211820855398139</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q22">
-        <v>35.57461419790558</v>
+        <v>261.5367670900392</v>
       </c>
       <c r="R22">
-        <v>35.57461419790558</v>
+        <v>2353.830903810353</v>
       </c>
       <c r="S22">
-        <v>0.005758768272162988</v>
+        <v>0.03442298116381851</v>
       </c>
       <c r="T22">
-        <v>0.005758768272162988</v>
+        <v>0.03442298116381852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.9403553989376</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H23">
-        <v>33.9403553989376</v>
+        <v>49.421053</v>
       </c>
       <c r="I23">
-        <v>0.4752161383021395</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J23">
-        <v>0.4752161383021395</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.0456901484545</v>
+        <v>17.297808</v>
       </c>
       <c r="N23">
-        <v>12.0456901484545</v>
+        <v>51.893424</v>
       </c>
       <c r="O23">
-        <v>0.1392663831327879</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P23">
-        <v>0.1392663831327879</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q23">
-        <v>408.8350046640272</v>
+        <v>284.958628650608</v>
       </c>
       <c r="R23">
-        <v>408.8350046640272</v>
+        <v>2564.627657855472</v>
       </c>
       <c r="S23">
-        <v>0.06618163278766967</v>
+        <v>0.03750572286890145</v>
       </c>
       <c r="T23">
-        <v>0.06618163278766967</v>
+        <v>0.03750572286890144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.9403553989376</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H24">
-        <v>33.9403553989376</v>
+        <v>49.421053</v>
       </c>
       <c r="I24">
-        <v>0.4752161383021395</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J24">
-        <v>0.4752161383021395</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.3208400928581</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N24">
-        <v>16.3208400928581</v>
+        <v>194.834139</v>
       </c>
       <c r="O24">
-        <v>0.188693577653794</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P24">
-        <v>0.188693577653794</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q24">
-        <v>553.9351131608336</v>
+        <v>1069.87870108093</v>
       </c>
       <c r="R24">
-        <v>553.9351131608336</v>
+        <v>9628.908309728367</v>
       </c>
       <c r="S24">
-        <v>0.08967023329505089</v>
+        <v>0.1408154378623199</v>
       </c>
       <c r="T24">
-        <v>0.08967023329505089</v>
+        <v>0.14081543786232</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.9403553989376</v>
+        <v>16.47368433333333</v>
       </c>
       <c r="H25">
-        <v>33.9403553989376</v>
+        <v>49.421053</v>
       </c>
       <c r="I25">
-        <v>0.4752161383021395</v>
+        <v>0.2177767410027899</v>
       </c>
       <c r="J25">
-        <v>0.4752161383021395</v>
+        <v>0.21777674100279</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>56.0433493898552</v>
+        <v>1.120291</v>
       </c>
       <c r="N25">
-        <v>56.0433493898552</v>
+        <v>3.360873</v>
       </c>
       <c r="O25">
-        <v>0.6479458189594614</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P25">
-        <v>0.6479458189594614</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q25">
-        <v>1902.131196038518</v>
+        <v>18.45532029547433</v>
       </c>
       <c r="R25">
-        <v>1902.131196038518</v>
+        <v>166.097882659269</v>
       </c>
       <c r="S25">
-        <v>0.3079143099149325</v>
+        <v>0.002429054813102589</v>
       </c>
       <c r="T25">
-        <v>0.3079143099149325</v>
+        <v>0.002429054813102589</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H26">
+        <v>103.255436</v>
+      </c>
+      <c r="I26">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J26">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.08106466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.243194</v>
+      </c>
+      <c r="O26">
+        <v>0.0008070985645251864</v>
+      </c>
+      <c r="P26">
+        <v>0.0008070985645251862</v>
+      </c>
+      <c r="Q26">
+        <v>2.790122500287111</v>
+      </c>
+      <c r="R26">
+        <v>25.111102502584</v>
+      </c>
+      <c r="S26">
+        <v>0.0003672307161274356</v>
+      </c>
+      <c r="T26">
+        <v>0.0003672307161274356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H27">
+        <v>103.255436</v>
+      </c>
+      <c r="I27">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J27">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.119701666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.359105</v>
+      </c>
+      <c r="O27">
+        <v>0.01114800868273632</v>
+      </c>
+      <c r="P27">
+        <v>0.01114800868273631</v>
+      </c>
+      <c r="Q27">
+        <v>38.53842792719777</v>
+      </c>
+      <c r="R27">
+        <v>346.84585134478</v>
+      </c>
+      <c r="S27">
+        <v>0.005072355957372507</v>
+      </c>
+      <c r="T27">
+        <v>0.005072355957372507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H28">
+        <v>103.255436</v>
+      </c>
+      <c r="I28">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J28">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>15.87603366666667</v>
+      </c>
+      <c r="N28">
+        <v>47.628101</v>
+      </c>
+      <c r="O28">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="P28">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="Q28">
+        <v>546.4289260674484</v>
+      </c>
+      <c r="R28">
+        <v>4917.860334607036</v>
+      </c>
+      <c r="S28">
+        <v>0.07191995541838957</v>
+      </c>
+      <c r="T28">
+        <v>0.07191995541838957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H29">
+        <v>103.255436</v>
+      </c>
+      <c r="I29">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J29">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.297808</v>
+      </c>
+      <c r="N29">
+        <v>51.893424</v>
+      </c>
+      <c r="O29">
+        <v>0.172220975923324</v>
+      </c>
+      <c r="P29">
+        <v>0.1722209759233239</v>
+      </c>
+      <c r="Q29">
+        <v>595.364235628096</v>
+      </c>
+      <c r="R29">
+        <v>5358.278120652863</v>
+      </c>
+      <c r="S29">
+        <v>0.07836072953207997</v>
+      </c>
+      <c r="T29">
+        <v>0.07836072953207995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H30">
+        <v>103.255436</v>
+      </c>
+      <c r="I30">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J30">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>64.94471299999999</v>
+      </c>
+      <c r="N30">
+        <v>194.834139</v>
+      </c>
+      <c r="O30">
+        <v>0.6466045786795752</v>
+      </c>
+      <c r="P30">
+        <v>0.6466045786795751</v>
+      </c>
+      <c r="Q30">
+        <v>2235.298218903289</v>
+      </c>
+      <c r="R30">
+        <v>20117.6839701296</v>
+      </c>
+      <c r="S30">
+        <v>0.2942057797110222</v>
+      </c>
+      <c r="T30">
+        <v>0.2942057797110222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>33.9403553989376</v>
-      </c>
-      <c r="H26">
-        <v>33.9403553989376</v>
-      </c>
-      <c r="I26">
-        <v>0.4752161383021395</v>
-      </c>
-      <c r="J26">
-        <v>0.4752161383021395</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.03585174617926</v>
-      </c>
-      <c r="N26">
-        <v>1.03585174617926</v>
-      </c>
-      <c r="O26">
-        <v>0.01197601169997529</v>
-      </c>
-      <c r="P26">
-        <v>0.01197601169997529</v>
-      </c>
-      <c r="Q26">
-        <v>35.15717640593419</v>
-      </c>
-      <c r="R26">
-        <v>35.15717640593419</v>
-      </c>
-      <c r="S26">
-        <v>0.005691194032323497</v>
-      </c>
-      <c r="T26">
-        <v>0.005691194032323497</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>34.41847866666667</v>
+      </c>
+      <c r="H31">
+        <v>103.255436</v>
+      </c>
+      <c r="I31">
+        <v>0.4550010770288959</v>
+      </c>
+      <c r="J31">
+        <v>0.455001077028896</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.120291</v>
+      </c>
+      <c r="N31">
+        <v>3.360873</v>
+      </c>
+      <c r="O31">
+        <v>0.01115387622166442</v>
+      </c>
+      <c r="P31">
+        <v>0.01115387622166441</v>
+      </c>
+      <c r="Q31">
+        <v>38.55871188395867</v>
+      </c>
+      <c r="R31">
+        <v>347.028406955628</v>
+      </c>
+      <c r="S31">
+        <v>0.005075025693904302</v>
+      </c>
+      <c r="T31">
+        <v>0.005075025693904302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.17467</v>
+      </c>
+      <c r="I32">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J32">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.08106466666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.243194</v>
+      </c>
+      <c r="O32">
+        <v>0.0008070985645251864</v>
+      </c>
+      <c r="P32">
+        <v>0.0008070985645251862</v>
+      </c>
+      <c r="Q32">
+        <v>0.03174141066444444</v>
+      </c>
+      <c r="R32">
+        <v>0.28567269598</v>
+      </c>
+      <c r="S32">
+        <v>4.177745230899173E-06</v>
+      </c>
+      <c r="T32">
+        <v>4.177745230899174E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.17467</v>
+      </c>
+      <c r="I33">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J33">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.119701666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.359105</v>
+      </c>
+      <c r="O33">
+        <v>0.01114800868273632</v>
+      </c>
+      <c r="P33">
+        <v>0.01114800868273631</v>
+      </c>
+      <c r="Q33">
+        <v>0.438426652261111</v>
+      </c>
+      <c r="R33">
+        <v>3.94583987035</v>
+      </c>
+      <c r="S33">
+        <v>5.770489771063252E-05</v>
+      </c>
+      <c r="T33">
+        <v>5.770489771063253E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.17467</v>
+      </c>
+      <c r="I34">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J34">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>15.87603366666667</v>
+      </c>
+      <c r="N34">
+        <v>47.628101</v>
+      </c>
+      <c r="O34">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="P34">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="Q34">
+        <v>6.216366822407776</v>
+      </c>
+      <c r="R34">
+        <v>55.94730140167</v>
+      </c>
+      <c r="S34">
+        <v>0.0008181865992151703</v>
+      </c>
+      <c r="T34">
+        <v>0.0008181865992151704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.17467</v>
+      </c>
+      <c r="I35">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J35">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.297808</v>
+      </c>
+      <c r="N35">
+        <v>51.893424</v>
+      </c>
+      <c r="O35">
+        <v>0.172220975923324</v>
+      </c>
+      <c r="P35">
+        <v>0.1722209759233239</v>
+      </c>
+      <c r="Q35">
+        <v>6.773072041119999</v>
+      </c>
+      <c r="R35">
+        <v>60.95764837007999</v>
+      </c>
+      <c r="S35">
+        <v>0.0008914591010922502</v>
+      </c>
+      <c r="T35">
+        <v>0.0008914591010922501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.17467</v>
+      </c>
+      <c r="I36">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J36">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>64.94471299999999</v>
+      </c>
+      <c r="N36">
+        <v>194.834139</v>
+      </c>
+      <c r="O36">
+        <v>0.6466045786795752</v>
+      </c>
+      <c r="P36">
+        <v>0.6466045786795751</v>
+      </c>
+      <c r="Q36">
+        <v>25.42953533990333</v>
+      </c>
+      <c r="R36">
+        <v>228.86581805913</v>
+      </c>
+      <c r="S36">
+        <v>0.003346987980886027</v>
+      </c>
+      <c r="T36">
+        <v>0.003346987980886028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.3915566666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.17467</v>
+      </c>
+      <c r="I37">
+        <v>0.005176251593703339</v>
+      </c>
+      <c r="J37">
+        <v>0.005176251593703341</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.120291</v>
+      </c>
+      <c r="N37">
+        <v>3.360873</v>
+      </c>
+      <c r="O37">
+        <v>0.01115387622166442</v>
+      </c>
+      <c r="P37">
+        <v>0.01115387622166441</v>
+      </c>
+      <c r="Q37">
+        <v>0.4386574096566666</v>
+      </c>
+      <c r="R37">
+        <v>3.947916686909999</v>
+      </c>
+      <c r="S37">
+        <v>5.773526956836022E-05</v>
+      </c>
+      <c r="T37">
+        <v>5.773526956836022E-05</v>
       </c>
     </row>
   </sheetData>
